--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc207_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc207_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="C3" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="3">
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -918,10 +942,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="K27" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -965,28 +989,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="3">
+      <c r="A29" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="3">
+      <c r="B29" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="3">
+      <c r="C29" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D29" t="s" s="3">
+      <c r="D29" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="3">
+      <c r="E29" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="3">
+      <c r="F29" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="3">
+      <c r="G29" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="3">
+      <c r="H29" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1011,28 +1035,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="3">
+      <c r="B31" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="3">
+      <c r="C31" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="3">
+      <c r="D31" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="3">
+      <c r="E31" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="3">
+      <c r="F31" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="3">
+      <c r="G31" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="3">
+      <c r="H31" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="3">
+      <c r="I31" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1555,10 +1579,10 @@
       <c r="I49">
         <f>((C49-C48)^2+(D49- D48)^2)^.5</f>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="J49" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="K49" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L49" t="n">
@@ -1602,28 +1626,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="3">
+      <c r="A51" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B51" t="s" s="3">
+      <c r="B51" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C51" t="s" s="3">
+      <c r="C51" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D51" t="s" s="3">
+      <c r="D51" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E51" t="s" s="3">
+      <c r="E51" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F51" t="s" s="3">
+      <c r="F51" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G51" t="s" s="3">
+      <c r="G51" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H51" t="s" s="3">
+      <c r="H51" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1648,28 +1672,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="s" s="3">
+      <c r="B53" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C53" t="s" s="3">
+      <c r="C53" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D53" t="s" s="3">
+      <c r="D53" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E53" t="s" s="3">
+      <c r="E53" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F53" t="s" s="3">
+      <c r="F53" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G53" t="s" s="3">
+      <c r="G53" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H53" t="s" s="3">
+      <c r="H53" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I53" t="s" s="3">
+      <c r="I53" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1989,10 +2013,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="3" t="s">
+      <c r="J64" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K64" s="3" t="s">
+      <c r="K64" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2036,28 +2060,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="3">
+      <c r="A66" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="3">
+      <c r="B66" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="3">
+      <c r="C66" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D66" t="s" s="3">
+      <c r="D66" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="3">
+      <c r="E66" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="3">
+      <c r="F66" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="3">
+      <c r="G66" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="3">
+      <c r="H66" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2082,28 +2106,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="3">
+      <c r="B68" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="3">
+      <c r="C68" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="3">
+      <c r="D68" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="3">
+      <c r="E68" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="3">
+      <c r="F68" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="3">
+      <c r="G68" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="3">
+      <c r="H68" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="3">
+      <c r="I68" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2597,10 +2621,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="3" t="s">
+      <c r="J85" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K85" s="3" t="s">
+      <c r="K85" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2644,28 +2668,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="3">
+      <c r="A87" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="3">
+      <c r="B87" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="3">
+      <c r="C87" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D87" t="s" s="3">
+      <c r="D87" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="3">
+      <c r="E87" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="3">
+      <c r="F87" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="3">
+      <c r="G87" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="3">
+      <c r="H87" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2690,28 +2714,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="3">
+      <c r="B89" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="3">
+      <c r="C89" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="3">
+      <c r="D89" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="3">
+      <c r="E89" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="3">
+      <c r="F89" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="3">
+      <c r="G89" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="3">
+      <c r="H89" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="3">
+      <c r="I89" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3118,10 +3142,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="3" t="s">
+      <c r="J103" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K103" s="3" t="s">
+      <c r="K103" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3165,28 +3189,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="3">
+      <c r="A105" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="3">
+      <c r="B105" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="3">
+      <c r="C105" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D105" t="s" s="3">
+      <c r="D105" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="3">
+      <c r="E105" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="3">
+      <c r="F105" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="3">
+      <c r="G105" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="3">
+      <c r="H105" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3211,28 +3235,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="3">
+      <c r="B107" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="3">
+      <c r="C107" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="3">
+      <c r="D107" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="3">
+      <c r="E107" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="3">
+      <c r="F107" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="3">
+      <c r="G107" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="3">
+      <c r="H107" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="3">
+      <c r="I107" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3494,10 +3518,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="3" t="s">
+      <c r="J116" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K116" s="3" t="s">
+      <c r="K116" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3541,28 +3565,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="3">
+      <c r="A118" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="3">
+      <c r="B118" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="3">
+      <c r="C118" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D118" t="s" s="3">
+      <c r="D118" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="3">
+      <c r="E118" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="3">
+      <c r="F118" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="3">
+      <c r="G118" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="3">
+      <c r="H118" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3587,28 +3611,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="3">
+      <c r="B120" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="3">
+      <c r="C120" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="3">
+      <c r="D120" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="3">
+      <c r="E120" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="3">
+      <c r="F120" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="3">
+      <c r="G120" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="3">
+      <c r="H120" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="3">
+      <c r="I120" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3870,10 +3894,10 @@
       <c r="I129">
         <f>((C129-C128)^2+(D129- D128)^2)^.5</f>
       </c>
-      <c r="J129" s="3" t="s">
+      <c r="J129" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K129" s="3" t="s">
+      <c r="K129" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L129" t="n">
@@ -3917,28 +3941,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s" s="3">
+      <c r="A131" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B131" t="s" s="3">
+      <c r="B131" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C131" t="s" s="3">
+      <c r="C131" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D131" t="s" s="3">
+      <c r="D131" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E131" t="s" s="3">
+      <c r="E131" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F131" t="s" s="3">
+      <c r="F131" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G131" t="s" s="3">
+      <c r="G131" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H131" t="s" s="3">
+      <c r="H131" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3963,28 +3987,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="B133" t="s" s="3">
+      <c r="B133" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C133" t="s" s="3">
+      <c r="C133" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D133" t="s" s="3">
+      <c r="D133" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E133" t="s" s="3">
+      <c r="E133" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F133" t="s" s="3">
+      <c r="F133" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G133" t="s" s="3">
+      <c r="G133" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H133" t="s" s="3">
+      <c r="H133" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I133" t="s" s="3">
+      <c r="I133" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4188,10 +4212,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="3" t="s">
+      <c r="J140" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K140" s="3" t="s">
+      <c r="K140" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4235,28 +4259,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="3">
+      <c r="A142" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="3">
+      <c r="B142" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="3">
+      <c r="C142" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D142" t="s" s="3">
+      <c r="D142" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="3">
+      <c r="E142" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="3">
+      <c r="F142" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="3">
+      <c r="G142" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="3">
+      <c r="H142" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4281,28 +4305,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="3">
+      <c r="B144" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="3">
+      <c r="C144" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="3">
+      <c r="D144" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="3">
+      <c r="E144" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="3">
+      <c r="F144" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="3">
+      <c r="G144" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="3">
+      <c r="H144" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="3">
+      <c r="I144" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4361,10 +4385,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="3" t="s">
+      <c r="J146" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K146" s="3" t="s">
+      <c r="K146" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
